--- a/AprilMonthReport.xlsx
+++ b/AprilMonthReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Organazation Information</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Event </t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
   <si>
     <t>Index</t>
@@ -463,34 +460,34 @@
       <c r="J2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="0">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>12342134324</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="0">
         <v>5</v>
@@ -499,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="T3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="AA3" s="1">
         <v>5</v>
@@ -513,13 +510,13 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="M4" s="0">
         <v>3300000000</v>
@@ -527,13 +524,13 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>12323123</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="0">
         <v>5</v>
@@ -541,13 +538,13 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>11111111</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="0">
         <v>3300000000</v>
@@ -555,10 +552,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/AprilMonthReport.xlsx
+++ b/AprilMonthReport.xlsx
@@ -59,7 +59,7 @@
     <t>10000消費券</t>
   </si>
   <si>
-    <t>2022-04-12</t>
+    <t>2022-04-24</t>
   </si>
   <si>
     <t>Email</t>
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="AA3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
         <v>3300000000</v>
@@ -533,7 +533,7 @@
         <v>19</v>
       </c>
       <c r="M5" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
